--- a/Luban/Datas/shop.xlsx
+++ b/Luban/Datas/shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BCD91-F16E-4995-B325-33495B277F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953F9911-5D30-446F-8526-8A7DEAB4501C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3765" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="2565" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
